--- a/Data/Certification_Matrix.xlsx
+++ b/Data/Certification_Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioansuciu\Desktop\Certification Matrix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioansuciu\Documents\UiPath\LC_Unattended_VoucherOrder_RetrieveUnicornOrders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772F2F8A-40C4-475C-88AC-F7339AD90471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB49D409-4A86-4BCD-BFF8-0EDA25C46707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17655" yWindow="3975" windowWidth="23235" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="37920" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MatchMatrix" sheetId="1" r:id="rId1"/>
@@ -178,10 +178,10 @@
     <t>Automation Developer Associate Exam Voucher</t>
   </si>
   <si>
-    <t>Automation Business Analyst Professional Voucher</t>
-  </si>
-  <si>
-    <t>Automation Solution Architect Professional Voucher</t>
+    <t>Automation Business Analyst Professional Exam Voucher</t>
+  </si>
+  <si>
+    <t>Automation Solution Architect Professional Exam Voucher</t>
   </si>
 </sst>
 </file>
@@ -815,7 +815,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Certification_Matrix.xlsx
+++ b/Data/Certification_Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioansuciu\Documents\UiPath\LC_Unattended_VoucherOrder_RetrieveUnicornOrders\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioansuciu\Documents\UiPath\LC_Unattended_VoucherOrder_ProcessOrderEmail\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB49D409-4A86-4BCD-BFF8-0EDA25C46707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2093E1F5-02F8-4E5E-A8ED-726A010C30C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="37920" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10905" yWindow="3645" windowWidth="18780" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MatchMatrix" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>UniqueID</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>Automation Solution Architect Professional Exam Voucher</t>
+  </si>
+  <si>
+    <t>UiSoft_Test</t>
+  </si>
+  <si>
+    <t>Software Testing Engineer Professional Exam Voucher</t>
+  </si>
+  <si>
+    <t>UiPath Software Testing Engineer Professional Internal Voucher - 100% Off</t>
   </si>
 </sst>
 </file>
@@ -199,6 +208,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -815,7 +825,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1046,10 +1056,18 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="30" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="30" customHeight="1">
       <c r="A16" s="13"/>

--- a/Data/Certification_Matrix.xlsx
+++ b/Data/Certification_Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioansuciu\Documents\UiPath\LC_Unattended_VoucherOrder_ProcessOrderEmail\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2093E1F5-02F8-4E5E-A8ED-726A010C30C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F53EE4B-A4B7-4919-B0CB-211EFBCF94D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10905" yWindow="3645" windowWidth="18780" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="38010" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MatchMatrix" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>UniqueID</t>
   </si>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t>UiPath Software Testing Engineer Professional Internal Voucher - 100% Off</t>
+  </si>
+  <si>
+    <t>UIAG_Test</t>
+  </si>
+  <si>
+    <t>Agentic Automation Associate Exam Voucher</t>
+  </si>
+  <si>
+    <t>UiPath Agentic Automation Associate Exam Internal Voucher - 100% Off</t>
   </si>
 </sst>
 </file>
@@ -825,7 +834,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1070,10 +1079,18 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="30" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1">
       <c r="A17" s="8"/>

--- a/Data/Certification_Matrix.xlsx
+++ b/Data/Certification_Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioansuciu\Documents\UiPath\LC_Unattended_VoucherOrder_ProcessOrderEmail\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F53EE4B-A4B7-4919-B0CB-211EFBCF94D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABF78BE-52B0-4DC4-9DA1-E2335C03E7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="38010" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51030" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MatchMatrix" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>UniqueID</t>
   </si>
@@ -200,13 +200,37 @@
   </si>
   <si>
     <t>UiPath Agentic Automation Associate Exam Internal Voucher - 100% Off</t>
+  </si>
+  <si>
+    <t>UIUN_As</t>
+  </si>
+  <si>
+    <t>UiPath Universal Voucher for all Associate</t>
+  </si>
+  <si>
+    <t>UiPath Universal Voucher for all Associate Exams - 100% Off (valid for 3 months)</t>
+  </si>
+  <si>
+    <t>UIUN_All</t>
+  </si>
+  <si>
+    <t>UiPath Universal Voucher - for all UiPath Exams</t>
+  </si>
+  <si>
+    <t>UiPath Universal Voucher - for all UiPath Exams - 100% Off (valid for 3 months)</t>
+  </si>
+  <si>
+    <t>UiPath Universal Vouchers - for all UiPath Exams - 100% Off (valid for 3 months)</t>
+  </si>
+  <si>
+    <t>UiPath 150 USD Vouchers - for all Associate Exams - 100% Off (valid for 3 months)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -238,13 +262,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -335,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -374,6 +409,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,7 +875,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1093,16 +1134,32 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="A18" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1">
       <c r="A19" s="8"/>

--- a/Data/Certification_Matrix.xlsx
+++ b/Data/Certification_Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioansuciu\Documents\UiPath\LC_Unattended_VoucherOrder_ProcessOrderEmail\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABF78BE-52B0-4DC4-9DA1-E2335C03E7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D0ED3B-9EC2-4394-A637-C7BFE7419B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51030" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="37995" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MatchMatrix" sheetId="1" r:id="rId1"/>
@@ -875,15 +875,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="85.140625" customWidth="1"/>
-    <col min="3" max="3" width="89.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.42578125" customWidth="1"/>
+    <col min="3" max="3" width="94.85546875" customWidth="1"/>
+    <col min="4" max="4" width="86.7109375" customWidth="1"/>
     <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -924,241 +924,241 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="30" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>51</v>
+      <c r="A2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>25</v>
+      <c r="A3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="30" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>10</v>
+      <c r="A4" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>53</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="30" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="30" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>4</v>
+      <c r="A7" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="30" customHeight="1">
-      <c r="A8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>52</v>
+      <c r="A8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="30" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="30" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>42</v>
+      <c r="A10" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="30" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>30</v>
+      <c r="A11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="30" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1">
-      <c r="A13" s="13" t="s">
-        <v>49</v>
+      <c r="A13" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="30" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>48</v>
+      <c r="A14" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="30" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="30" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1">
-      <c r="A17" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>62</v>
+      <c r="A17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1">
-      <c r="A18" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>65</v>
+      <c r="A18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1">
